--- a/study_data/Significance/FaultDetection/bug_ALL_TOOL_PAIRS_3.0h(Raw).xlsx
+++ b/study_data/Significance/FaultDetection/bug_ALL_TOOL_PAIRS_3.0h(Raw).xlsx
@@ -7,62 +7,62 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Monkey-Stoat_3_SIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Monkey-Stoat_3_isSIG" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Monkey-APE_3_SIG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Monkey-APE_3_isSIG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Monkey-Combodroid_3_SIG" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Monkey-Combodroid_3_isSIG" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Monkey-Humanoid_3_SIG" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Monkey-Humanoid_3_isSIG" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Monkey-QT_3_SIG" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Monkey-QT_3_isSIG" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Monkey-ARES_3_SIG" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Monkey-ARES_3_isSIG" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Monkey-DQT_3_SIG" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Monkey-DQT_3_isSIG" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Stoat-APE_3_SIG" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Stoat-APE_3_isSIG" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Stoat-Combodroid_3_SIG" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Stoat-Combodroid_3_isSIG" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stoat-Humanoid_3_SIG" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stoat-Humanoid_3_isSIG" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stoat-QT_3_SIG" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stoat-QT_3_isSIG" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Stoat-ARES_3_SIG" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Stoat-ARES_3_isSIG" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Stoat-DQT_3_SIG" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Stoat-DQT_3_isSIG" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="APE-Combodroid_3_SIG" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="APE-Combodroid_3_isSIG" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="APE-Humanoid_3_SIG" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="APE-Humanoid_3_isSIG" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="APE-QT_3_SIG" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="APE-QT_3_isSIG" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="APE-ARES_3_SIG" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="APE-ARES_3_isSIG" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="APE-DQT_3_SIG" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="APE-DQT_3_isSIG" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Combodroid-Humanoid_3_SIG" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Combodroid-Humanoid_3_isSIG" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Combodroid-QT_3_SIG" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Combodroid-QT_3_isSIG" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Combodroid-ARES_3_SIG" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Combodroid-ARES_3_isSIG" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Combodroid-DQT_3_SIG" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Combodroid-DQT_3_isSIG" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Humanoid-QT_3_SIG" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Humanoid-QT_3_isSIG" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Humanoid-ARES_3_SIG" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Humanoid-ARES_3_isSIG" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Humanoid-DQT_3_SIG" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Humanoid-DQT_3_isSIG" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="QT-ARES_3_SIG" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="QT-ARES_3_isSIG" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="QT-DQT_3_SIG" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="QT-DQT_3_isSIG" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="ARES-DQT_3_SIG" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="ARES-DQT_3_isSIG" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Monkey-Stoat_3.0h_SIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monkey-Stoat_3.0h_isSIG" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Monkey-APE_3.0h_SIG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Monkey-APE_3.0h_isSIG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Monkey-Combodroid_3.0h_SIG" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Monkey-Combodroid_3.0h_isSIG" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Monkey-Humanoid_3.0h_SIG" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Monkey-Humanoid_3.0h_isSIG" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Monkey-QT_3.0h_SIG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Monkey-QT_3.0h_isSIG" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Monkey-ARES_3.0h_SIG" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Monkey-ARES_3.0h_isSIG" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Monkey-DQT_3.0h_SIG" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Monkey-DQT_3.0h_isSIG" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Stoat-APE_3.0h_SIG" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Stoat-APE_3.0h_isSIG" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Stoat-Combodroid_3.0h_SIG" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Stoat-Combodroid_3.0h_isSIG" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stoat-Humanoid_3.0h_SIG" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stoat-Humanoid_3.0h_isSIG" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stoat-QT_3.0h_SIG" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Stoat-QT_3.0h_isSIG" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Stoat-ARES_3.0h_SIG" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Stoat-ARES_3.0h_isSIG" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Stoat-DQT_3.0h_SIG" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Stoat-DQT_3.0h_isSIG" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="APE-Combodroid_3.0h_SIG" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="APE-Combodroid_3.0h_isSIG" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="APE-Humanoid_3.0h_SIG" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="APE-Humanoid_3.0h_isSIG" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="APE-QT_3.0h_SIG" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="APE-QT_3.0h_isSIG" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="APE-ARES_3.0h_SIG" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="APE-ARES_3.0h_isSIG" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="APE-DQT_3.0h_SIG" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="APE-DQT_3.0h_isSIG" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Combodroid-Humanoid_3.0h_SIG" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Combodroid-Humanoid_3.0h_isSIG" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Combodroid-QT_3.0h_SIG" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Combodroid-QT_3.0h_isSIG" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Combodroid-ARES_3.0h_SIG" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Combodroid-ARES_3.0h_isSIG" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Combodroid-DQT_3.0h_SIG" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Combodroid-DQT_3.0h_isSIG" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Humanoid-QT_3.0h_SIG" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Humanoid-QT_3.0h_isSIG" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Humanoid-ARES_3.0h_SIG" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Humanoid-ARES_3.0h_isSIG" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Humanoid-DQT_3.0h_SIG" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Humanoid-DQT_3.0h_isSIG" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="QT-ARES_3.0h_SIG" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="QT-ARES_3.0h_isSIG" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="QT-DQT_3.0h_SIG" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="QT-DQT_3.0h_isSIG" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="ARES-DQT_3.0h_SIG" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="ARES-DQT_3.0h_isSIG" sheetId="56" state="visible" r:id="rId56"/>
     <sheet name="TOTAL" sheetId="57" state="visible" r:id="rId57"/>
   </sheets>
   <definedNames/>
@@ -7578,17 +7578,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.00</t>
         </is>
       </c>
     </row>
@@ -9173,44 +9173,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>&gt;&gt;</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>&lt;&lt;</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -10335,17 +10335,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -10374,17 +10374,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -35845,17 +35845,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.63</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.88</t>
         </is>
       </c>
     </row>
@@ -39272,12 +39272,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.02</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -42536,7 +42536,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -45886,17 +45886,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.02</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+ 0.00</t>
+          <t>- 0.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+ 0.01</t>
+          <t>- 0.02</t>
         </is>
       </c>
     </row>
@@ -47405,44 +47405,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>&gt;&gt;</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>&lt;&lt;</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -48539,17 +48539,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -48578,17 +48578,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -48647,7 +48647,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -48672,7 +48672,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -52728,24 +52728,12 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>++</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>++</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>++</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -52753,17 +52741,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>&gt;&gt;</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -53872,17 +53852,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -53950,17 +53930,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -53975,7 +53955,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -53985,7 +53965,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -81719,22 +81699,22 @@
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -81976,7 +81956,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -81991,7 +81971,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -82515,7 +82495,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -82530,7 +82510,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -83042,22 +83022,22 @@
         <v>648</v>
       </c>
       <c r="C30" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D30" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E30" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F30" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G30" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
@@ -83069,7 +83049,7 @@
         <v>23</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
